--- a/Data/Subject_1/Dichotic.xlsx
+++ b/Data/Subject_1/Dichotic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
   <si>
     <t>trial_side</t>
   </si>
@@ -49,16 +49,16 @@
     <t>block</t>
   </si>
   <si>
+    <t>sentence_id</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
     <t>Left</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>First Practice</t>
-  </si>
-  <si>
-    <t>Second Practice</t>
   </si>
   <si>
     <t>Real Trials</t>
@@ -428,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,31 +468,37 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2">
-        <v>1582822050.753</v>
+        <v>1582825701.899</v>
       </c>
       <c r="G2">
-        <v>1582822052.775</v>
+        <v>1582825704.604</v>
       </c>
       <c r="H2">
-        <v>1708.004535147392</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -500,31 +506,37 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>80</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>1582822052.775</v>
+        <v>1582825702.412</v>
       </c>
       <c r="G3">
-        <v>1582822055.324</v>
+        <v>1582825705.138</v>
       </c>
       <c r="H3">
-        <v>2235.986394557823</v>
+        <v>2401.337868480726</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -532,31 +544,37 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>59</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4">
-        <v>1582822055.326</v>
+        <v>1582825704.604</v>
       </c>
       <c r="G4">
-        <v>1582822057.872</v>
+        <v>1582825706.628</v>
       </c>
       <c r="H4">
-        <v>2228.004535147392</v>
+        <v>1715.986394557823</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -564,31 +582,37 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>92</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>1582822057.873</v>
+        <v>1582825705.138</v>
       </c>
       <c r="G5">
-        <v>1582822060.404</v>
+        <v>1582825707.67</v>
       </c>
       <c r="H5">
-        <v>2228.004535147392</v>
+        <v>2222.65306122449</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -596,31 +620,37 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6">
-        <v>1582822060.406</v>
+        <v>1582825706.628</v>
       </c>
       <c r="G6">
-        <v>1582822062.613</v>
+        <v>1582825709.001</v>
       </c>
       <c r="H6">
-        <v>1889.319727891156</v>
+        <v>2065.351473922902</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -628,31 +658,37 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>91</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>1582822062.614</v>
+        <v>1582825707.67</v>
       </c>
       <c r="G7">
-        <v>1582822064.637</v>
+        <v>1582825710.226</v>
       </c>
       <c r="H7">
-        <v>1713.333333333333</v>
+        <v>2233.333333333333</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -660,31 +696,37 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>22</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8">
-        <v>1582822064.638</v>
+        <v>1582825709.001</v>
       </c>
       <c r="G8">
-        <v>1582822066.656</v>
+        <v>1582825711.21</v>
       </c>
       <c r="H8">
-        <v>1713.333333333333</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
@@ -692,31 +734,37 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>93</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>1582822066.657</v>
+        <v>1582825710.226</v>
       </c>
       <c r="G9">
-        <v>1582822068.862</v>
+        <v>1582825712.601</v>
       </c>
       <c r="H9">
-        <v>1886.666666666667</v>
+        <v>2052.018140589569</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -724,31 +772,37 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>26</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10">
-        <v>1582822068.862</v>
+        <v>1582825711.21</v>
       </c>
       <c r="G10">
-        <v>1582822071.406</v>
+        <v>1582825713.564</v>
       </c>
       <c r="H10">
-        <v>2228.004535147392</v>
+        <v>2049.319727891156</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -756,31 +810,37 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>98</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>1582822073.487</v>
+        <v>1582825712.601</v>
       </c>
       <c r="G11">
-        <v>1582822076.024</v>
+        <v>1582825714.972</v>
       </c>
       <c r="H11">
-        <v>2230.680272108843</v>
+        <v>2052.018140589569</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -788,31 +848,37 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12">
-        <v>1582822074.002</v>
+        <v>1582825713.564</v>
       </c>
       <c r="G12">
-        <v>1582822076.372</v>
+        <v>1582825715.935</v>
       </c>
       <c r="H12">
-        <v>2062.65306122449</v>
+        <v>2049.319727891156</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -820,31 +886,37 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>98</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>1582822076.024</v>
+        <v>1582825714.972</v>
       </c>
       <c r="G13">
-        <v>1582822078.065</v>
+        <v>1582825717.673</v>
       </c>
       <c r="H13">
-        <v>1726.666666666667</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -852,95 +924,113 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14">
-        <v>1582822078.065</v>
+        <v>1582825715.935</v>
       </c>
       <c r="G14">
-        <v>1582822080.104</v>
+        <v>1582825717.963</v>
       </c>
       <c r="H14">
+        <v>1713.333333333333</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>76</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>1582825717.963</v>
+      </c>
+      <c r="G15">
+        <v>1582825720.005</v>
+      </c>
+      <c r="H15">
         <v>1726.666666666667</v>
       </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>1582822076.372</v>
-      </c>
-      <c r="G15">
-        <v>1582822080.453</v>
-      </c>
-      <c r="H15">
-        <v>3772.018140589569</v>
-      </c>
       <c r="I15" t="s">
         <v>18</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>81</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16">
-        <v>1582822080.104</v>
+        <v>1582825717.673</v>
       </c>
       <c r="G16">
-        <v>1582822082.31</v>
+        <v>1582825720.56</v>
       </c>
       <c r="H16">
-        <v>1886.666666666667</v>
+        <v>2577.34693877551</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -948,31 +1038,37 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
       </c>
       <c r="F17">
-        <v>1582822080.453</v>
+        <v>1582825720.005</v>
       </c>
       <c r="G17">
-        <v>1582822084.532</v>
+        <v>1582825722.38</v>
       </c>
       <c r="H17">
-        <v>3772.018140589569</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -980,31 +1076,37 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>86</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>1582822084.532</v>
+        <v>1582825720.56</v>
       </c>
       <c r="G18">
-        <v>1582822087.064</v>
+        <v>1582825723.449</v>
       </c>
       <c r="H18">
-        <v>2225.351473922903</v>
+        <v>2577.34693877551</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -1012,16 +1114,22 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1030,13 +1138,13 @@
         <v>16</v>
       </c>
       <c r="F19">
-        <v>1582822094.302</v>
+        <v>1582825722.38</v>
       </c>
       <c r="G19">
-        <v>1582822096.337</v>
+        <v>1582825724.76</v>
       </c>
       <c r="H19">
-        <v>1726.666666666667</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1044,16 +1152,22 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>86</v>
+      </c>
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1062,13 +1176,13 @@
         <v>17</v>
       </c>
       <c r="F20">
-        <v>1582822094.803</v>
+        <v>1582825723.449</v>
       </c>
       <c r="G20">
-        <v>1582822098.36</v>
+        <v>1582825726.009</v>
       </c>
       <c r="H20">
-        <v>3252.018140589569</v>
+        <v>2238.684807256236</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -1076,16 +1190,22 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>16</v>
+      </c>
+      <c r="N20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1094,13 +1214,13 @@
         <v>16</v>
       </c>
       <c r="F21">
-        <v>1582822096.337</v>
+        <v>1582825724.76</v>
       </c>
       <c r="G21">
-        <v>1582822098.365</v>
+        <v>1582825726.624</v>
       </c>
       <c r="H21">
-        <v>1718.684807256236</v>
+        <v>1555.986394557823</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
@@ -1108,31 +1228,37 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>70</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>1582822098.365</v>
+        <v>1582825726.009</v>
       </c>
       <c r="G22">
-        <v>1582822100.914</v>
+        <v>1582825728.568</v>
       </c>
       <c r="H22">
-        <v>2225.351473922903</v>
+        <v>2238.684807256236</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1140,31 +1266,37 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
         <v>11</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>1582822098.36</v>
+        <v>1582825726.624</v>
       </c>
       <c r="G23">
-        <v>1582822101.408</v>
+        <v>1582825729.164</v>
       </c>
       <c r="H23">
-        <v>2742.65306122449</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -1172,31 +1304,37 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>85</v>
+      </c>
+      <c r="N23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24">
-        <v>1582822100.914</v>
+        <v>1582825728.568</v>
       </c>
       <c r="G24">
-        <v>1582822103.453</v>
+        <v>1582825731.288</v>
       </c>
       <c r="H24">
-        <v>2225.351473922903</v>
+        <v>2406.666666666667</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
@@ -1204,16 +1342,22 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>48</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
         <v>11</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1222,13 +1366,13 @@
         <v>17</v>
       </c>
       <c r="F25">
-        <v>1582822101.408</v>
+        <v>1582825731.288</v>
       </c>
       <c r="G25">
-        <v>1582822104.132</v>
+        <v>1582825734.17</v>
       </c>
       <c r="H25">
-        <v>2401.337868480726</v>
+        <v>2566.666666666667</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
@@ -1236,548 +1380,10 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26">
-        <v>1582822103.453</v>
-      </c>
-      <c r="G26">
-        <v>1582822107.541</v>
-      </c>
-      <c r="H26">
-        <v>3772.018140589569</v>
-      </c>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27">
-        <v>1582822104.132</v>
-      </c>
-      <c r="G27">
-        <v>1582822107.709</v>
-      </c>
-      <c r="H27">
-        <v>3257.34693877551</v>
-      </c>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28">
-        <v>1582822107.541</v>
-      </c>
-      <c r="G28">
-        <v>1582822109.57</v>
-      </c>
-      <c r="H28">
-        <v>1708.004535147392</v>
-      </c>
-      <c r="I28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29">
-        <v>1582822107.709</v>
-      </c>
-      <c r="G29">
-        <v>1582822110.064</v>
-      </c>
-      <c r="H29">
-        <v>2052.018140589569</v>
-      </c>
-      <c r="I29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30">
-        <v>1582822109.57</v>
-      </c>
-      <c r="G30">
-        <v>1582822112.11</v>
-      </c>
-      <c r="H30">
-        <v>2235.986394557823</v>
-      </c>
-      <c r="I30" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31">
-        <v>1582822110.064</v>
-      </c>
-      <c r="G31">
-        <v>1582822112.788</v>
-      </c>
-      <c r="H31">
-        <v>2406.666666666667</v>
-      </c>
-      <c r="I31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32">
-        <v>1582822112.11</v>
-      </c>
-      <c r="G32">
-        <v>1582822114.811</v>
-      </c>
-      <c r="H32">
-        <v>2393.333333333334</v>
-      </c>
-      <c r="I32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33">
-        <v>1582822112.788</v>
-      </c>
-      <c r="G33">
-        <v>1582822115.508</v>
-      </c>
-      <c r="H33">
-        <v>2404.013605442177</v>
-      </c>
-      <c r="I33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34">
-        <v>1582822114.811</v>
-      </c>
-      <c r="G34">
-        <v>1582822116.674</v>
-      </c>
-      <c r="H34">
-        <v>1555.986394557823</v>
-      </c>
-      <c r="I34" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35">
-        <v>1582822115.508</v>
-      </c>
-      <c r="G35">
-        <v>1582822118.23</v>
-      </c>
-      <c r="H35">
-        <v>2404.013605442177</v>
-      </c>
-      <c r="I35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36">
-        <v>1582822116.674</v>
-      </c>
-      <c r="G36">
-        <v>1582822119.05</v>
-      </c>
-      <c r="H36">
-        <v>2065.351473922902</v>
-      </c>
-      <c r="I36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37">
-        <v>1582822118.23</v>
-      </c>
-      <c r="G37">
-        <v>1582822120.606</v>
-      </c>
-      <c r="H37">
-        <v>2052.018140589569</v>
-      </c>
-      <c r="I37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38">
-        <v>1582822119.05</v>
-      </c>
-      <c r="G38">
-        <v>1582822121.426</v>
-      </c>
-      <c r="H38">
-        <v>2065.351473922902</v>
-      </c>
-      <c r="I38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39">
-        <v>1582822120.606</v>
-      </c>
-      <c r="G39">
-        <v>1582822122.98</v>
-      </c>
-      <c r="H39">
-        <v>2052.018140589569</v>
-      </c>
-      <c r="I39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40">
-        <v>1582822121.426</v>
-      </c>
-      <c r="G40">
-        <v>1582822123.453</v>
-      </c>
-      <c r="H40">
-        <v>1713.333333333333</v>
-      </c>
-      <c r="I40" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41">
-        <v>1582822122.98</v>
-      </c>
-      <c r="G41">
-        <v>1582822125.513</v>
-      </c>
-      <c r="H41">
-        <v>2222.65306122449</v>
-      </c>
-      <c r="I41" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42">
-        <v>1582822125.513</v>
-      </c>
-      <c r="G42">
-        <v>1582822128.555</v>
-      </c>
-      <c r="H42">
-        <v>2734.671201814059</v>
-      </c>
-      <c r="I42" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42">
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Data/Subject_1/Dichotic.xlsx
+++ b/Data/Subject_1/Dichotic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="19">
   <si>
     <t>trial_side</t>
   </si>
@@ -49,16 +49,16 @@
     <t>block</t>
   </si>
   <si>
-    <t>sentence_id</t>
-  </si>
-  <si>
-    <t>Response</t>
+    <t>Left</t>
   </si>
   <si>
     <t>Right</t>
   </si>
   <si>
-    <t>Left</t>
+    <t>First Practice</t>
+  </si>
+  <si>
+    <t>Second Practice</t>
   </si>
   <si>
     <t>Real Trials</t>
@@ -428,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,37 +468,31 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2">
-        <v>1582825701.899</v>
+        <v>1582822050.753</v>
       </c>
       <c r="G2">
-        <v>1582825704.604</v>
+        <v>1582822052.775</v>
       </c>
       <c r="H2">
-        <v>2393.333333333334</v>
+        <v>1708.004535147392</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -506,37 +500,31 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>80</v>
-      </c>
-      <c r="N2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>1582825702.412</v>
+        <v>1582822052.775</v>
       </c>
       <c r="G3">
-        <v>1582825705.138</v>
+        <v>1582822055.324</v>
       </c>
       <c r="H3">
-        <v>2401.337868480726</v>
+        <v>2235.986394557823</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -544,37 +532,31 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>59</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4">
-        <v>1582825704.604</v>
+        <v>1582822055.326</v>
       </c>
       <c r="G4">
-        <v>1582825706.628</v>
+        <v>1582822057.872</v>
       </c>
       <c r="H4">
-        <v>1715.986394557823</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -582,37 +564,31 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>92</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>1582825705.138</v>
+        <v>1582822057.873</v>
       </c>
       <c r="G5">
-        <v>1582825707.67</v>
+        <v>1582822060.404</v>
       </c>
       <c r="H5">
-        <v>2222.65306122449</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -620,37 +596,31 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>9</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6">
-        <v>1582825706.628</v>
+        <v>1582822060.406</v>
       </c>
       <c r="G6">
-        <v>1582825709.001</v>
+        <v>1582822062.613</v>
       </c>
       <c r="H6">
-        <v>2065.351473922902</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -658,37 +628,31 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>91</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>1582825707.67</v>
+        <v>1582822062.614</v>
       </c>
       <c r="G7">
-        <v>1582825710.226</v>
+        <v>1582822064.637</v>
       </c>
       <c r="H7">
-        <v>2233.333333333333</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -696,37 +660,31 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>22</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8">
-        <v>1582825709.001</v>
+        <v>1582822064.638</v>
       </c>
       <c r="G8">
-        <v>1582825711.21</v>
+        <v>1582822066.656</v>
       </c>
       <c r="H8">
-        <v>1889.319727891156</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
@@ -734,37 +692,31 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>93</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>1582825710.226</v>
+        <v>1582822066.657</v>
       </c>
       <c r="G9">
-        <v>1582825712.601</v>
+        <v>1582822068.862</v>
       </c>
       <c r="H9">
-        <v>2052.018140589569</v>
+        <v>1886.666666666667</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -772,37 +724,31 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>26</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10">
-        <v>1582825711.21</v>
+        <v>1582822068.862</v>
       </c>
       <c r="G10">
-        <v>1582825713.564</v>
+        <v>1582822071.406</v>
       </c>
       <c r="H10">
-        <v>2049.319727891156</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -810,37 +756,31 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>98</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>1582825712.601</v>
+        <v>1582822073.487</v>
       </c>
       <c r="G11">
-        <v>1582825714.972</v>
+        <v>1582822076.024</v>
       </c>
       <c r="H11">
-        <v>2052.018140589569</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -848,37 +788,31 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12">
-        <v>1582825713.564</v>
+        <v>1582822074.002</v>
       </c>
       <c r="G12">
-        <v>1582825715.935</v>
+        <v>1582822076.372</v>
       </c>
       <c r="H12">
-        <v>2049.319727891156</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -886,37 +820,31 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>98</v>
-      </c>
-      <c r="N12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>1582825714.972</v>
+        <v>1582822076.024</v>
       </c>
       <c r="G13">
-        <v>1582825717.673</v>
+        <v>1582822078.065</v>
       </c>
       <c r="H13">
-        <v>2393.333333333334</v>
+        <v>1726.666666666667</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -924,37 +852,31 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>17</v>
-      </c>
-      <c r="N13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14">
-        <v>1582825715.935</v>
+        <v>1582822078.065</v>
       </c>
       <c r="G14">
-        <v>1582825717.963</v>
+        <v>1582822080.104</v>
       </c>
       <c r="H14">
-        <v>1713.333333333333</v>
+        <v>1726.666666666667</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -962,37 +884,31 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>76</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15">
-        <v>1582825717.963</v>
+        <v>1582822076.372</v>
       </c>
       <c r="G15">
-        <v>1582825720.005</v>
+        <v>1582822080.453</v>
       </c>
       <c r="H15">
-        <v>1726.666666666667</v>
+        <v>3772.018140589569</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -1000,37 +916,31 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>81</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>1582825717.673</v>
+        <v>1582822080.104</v>
       </c>
       <c r="G16">
-        <v>1582825720.56</v>
+        <v>1582822082.31</v>
       </c>
       <c r="H16">
-        <v>2577.34693877551</v>
+        <v>1886.666666666667</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1038,37 +948,31 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
       </c>
       <c r="F17">
-        <v>1582825720.005</v>
+        <v>1582822080.453</v>
       </c>
       <c r="G17">
-        <v>1582825722.38</v>
+        <v>1582822084.532</v>
       </c>
       <c r="H17">
-        <v>2062.65306122449</v>
+        <v>3772.018140589569</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -1076,37 +980,31 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>86</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>1582825720.56</v>
+        <v>1582822084.532</v>
       </c>
       <c r="G18">
-        <v>1582825723.449</v>
+        <v>1582822087.064</v>
       </c>
       <c r="H18">
-        <v>2577.34693877551</v>
+        <v>2225.351473922903</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -1114,22 +1012,16 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -1138,13 +1030,13 @@
         <v>16</v>
       </c>
       <c r="F19">
-        <v>1582825722.38</v>
+        <v>1582822094.302</v>
       </c>
       <c r="G19">
-        <v>1582825724.76</v>
+        <v>1582822096.337</v>
       </c>
       <c r="H19">
-        <v>2062.65306122449</v>
+        <v>1726.666666666667</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1152,22 +1044,16 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>86</v>
-      </c>
-      <c r="N19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1176,13 +1062,13 @@
         <v>17</v>
       </c>
       <c r="F20">
-        <v>1582825723.449</v>
+        <v>1582822094.803</v>
       </c>
       <c r="G20">
-        <v>1582825726.009</v>
+        <v>1582822098.36</v>
       </c>
       <c r="H20">
-        <v>2238.684807256236</v>
+        <v>3252.018140589569</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -1190,22 +1076,16 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>16</v>
-      </c>
-      <c r="N20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1214,13 +1094,13 @@
         <v>16</v>
       </c>
       <c r="F21">
-        <v>1582825724.76</v>
+        <v>1582822096.337</v>
       </c>
       <c r="G21">
-        <v>1582825726.624</v>
+        <v>1582822098.365</v>
       </c>
       <c r="H21">
-        <v>1555.986394557823</v>
+        <v>1718.684807256236</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
@@ -1228,37 +1108,31 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>70</v>
-      </c>
-      <c r="N21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>1582825726.009</v>
+        <v>1582822098.365</v>
       </c>
       <c r="G22">
-        <v>1582825728.568</v>
+        <v>1582822100.914</v>
       </c>
       <c r="H22">
-        <v>2238.684807256236</v>
+        <v>2225.351473922903</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1266,37 +1140,31 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23">
-        <v>1582825726.624</v>
+        <v>1582822098.36</v>
       </c>
       <c r="G23">
-        <v>1582825729.164</v>
+        <v>1582822101.408</v>
       </c>
       <c r="H23">
-        <v>2230.680272108843</v>
+        <v>2742.65306122449</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -1304,37 +1172,31 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>85</v>
-      </c>
-      <c r="N23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>1582825728.568</v>
+        <v>1582822100.914</v>
       </c>
       <c r="G24">
-        <v>1582825731.288</v>
+        <v>1582822103.453</v>
       </c>
       <c r="H24">
-        <v>2406.666666666667</v>
+        <v>2225.351473922903</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
@@ -1342,22 +1204,16 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>48</v>
-      </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1366,13 +1222,13 @@
         <v>17</v>
       </c>
       <c r="F25">
-        <v>1582825731.288</v>
+        <v>1582822101.408</v>
       </c>
       <c r="G25">
-        <v>1582825734.17</v>
+        <v>1582822104.132</v>
       </c>
       <c r="H25">
-        <v>2566.666666666667</v>
+        <v>2401.337868480726</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
@@ -1380,10 +1236,548 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25" t="b">
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>1582822103.453</v>
+      </c>
+      <c r="G26">
+        <v>1582822107.541</v>
+      </c>
+      <c r="H26">
+        <v>3772.018140589569</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>1582822104.132</v>
+      </c>
+      <c r="G27">
+        <v>1582822107.709</v>
+      </c>
+      <c r="H27">
+        <v>3257.34693877551</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>1582822107.541</v>
+      </c>
+      <c r="G28">
+        <v>1582822109.57</v>
+      </c>
+      <c r="H28">
+        <v>1708.004535147392</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>1582822107.709</v>
+      </c>
+      <c r="G29">
+        <v>1582822110.064</v>
+      </c>
+      <c r="H29">
+        <v>2052.018140589569</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>1582822109.57</v>
+      </c>
+      <c r="G30">
+        <v>1582822112.11</v>
+      </c>
+      <c r="H30">
+        <v>2235.986394557823</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>1582822110.064</v>
+      </c>
+      <c r="G31">
+        <v>1582822112.788</v>
+      </c>
+      <c r="H31">
+        <v>2406.666666666667</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>1582822112.11</v>
+      </c>
+      <c r="G32">
+        <v>1582822114.811</v>
+      </c>
+      <c r="H32">
+        <v>2393.333333333334</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>1582822112.788</v>
+      </c>
+      <c r="G33">
+        <v>1582822115.508</v>
+      </c>
+      <c r="H33">
+        <v>2404.013605442177</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>1582822114.811</v>
+      </c>
+      <c r="G34">
+        <v>1582822116.674</v>
+      </c>
+      <c r="H34">
+        <v>1555.986394557823</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>1582822115.508</v>
+      </c>
+      <c r="G35">
+        <v>1582822118.23</v>
+      </c>
+      <c r="H35">
+        <v>2404.013605442177</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>1582822116.674</v>
+      </c>
+      <c r="G36">
+        <v>1582822119.05</v>
+      </c>
+      <c r="H36">
+        <v>2065.351473922902</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37">
+        <v>1582822118.23</v>
+      </c>
+      <c r="G37">
+        <v>1582822120.606</v>
+      </c>
+      <c r="H37">
+        <v>2052.018140589569</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>1582822119.05</v>
+      </c>
+      <c r="G38">
+        <v>1582822121.426</v>
+      </c>
+      <c r="H38">
+        <v>2065.351473922902</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>1582822120.606</v>
+      </c>
+      <c r="G39">
+        <v>1582822122.98</v>
+      </c>
+      <c r="H39">
+        <v>2052.018140589569</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>1582822121.426</v>
+      </c>
+      <c r="G40">
+        <v>1582822123.453</v>
+      </c>
+      <c r="H40">
+        <v>1713.333333333333</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>1582822122.98</v>
+      </c>
+      <c r="G41">
+        <v>1582822125.513</v>
+      </c>
+      <c r="H41">
+        <v>2222.65306122449</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>1582822125.513</v>
+      </c>
+      <c r="G42">
+        <v>1582822128.555</v>
+      </c>
+      <c r="H42">
+        <v>2734.671201814059</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42">
         <v>0</v>
       </c>
     </row>

--- a/Data/Subject_1/Dichotic.xlsx
+++ b/Data/Subject_1/Dichotic.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -419,17 +419,37 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>session</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>block</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>sentence_id</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Response</t>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Response_Left</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Response_Left_time</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Response_Right</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Response_Right_time</t>
         </is>
       </c>
     </row>
@@ -447,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>First Practice</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -456,13 +476,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1583927460.869</v>
+        <v>1592383943.355708</v>
       </c>
       <c r="G2" t="n">
-        <v>1583927462.91</v>
+        <v>1592383945.542083</v>
       </c>
       <c r="H2" t="n">
-        <v>1726.666666666667</v>
+        <v>1886.666666666667</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -471,13 +491,23 @@
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>81</v>
-      </c>
-      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>115</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -487,30 +517,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>First Practice</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1583927461.377</v>
+        <v>1592383945.54308</v>
       </c>
       <c r="G3" t="n">
-        <v>1583927464.259</v>
+        <v>1592383947.569413</v>
       </c>
       <c r="H3" t="n">
-        <v>2566.666666666667</v>
+        <v>1726.666666666667</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -519,13 +549,23 @@
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>81</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -539,11 +579,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>First Practice</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -552,13 +592,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1583927462.91</v>
+        <v>1592383947.57041</v>
       </c>
       <c r="G4" t="n">
-        <v>1583927464.957</v>
+        <v>1592383949.578305</v>
       </c>
       <c r="H4" t="n">
-        <v>1713.333333333333</v>
+        <v>1708.004535147392</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -567,13 +607,23 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>74</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -583,30 +633,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>First Practice</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1583927464.259</v>
+        <v>1592383949.579303</v>
       </c>
       <c r="G5" t="n">
-        <v>1583927467.012</v>
+        <v>1592383951.587676</v>
       </c>
       <c r="H5" t="n">
-        <v>2404.013605442177</v>
+        <v>1708.004535147392</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -615,13 +665,23 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>35</v>
-      </c>
-      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>74</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -635,11 +695,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>First Practice</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -648,13 +708,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1583927464.957</v>
+        <v>1592383951.615276</v>
       </c>
       <c r="G6" t="n">
-        <v>1583927467.353</v>
+        <v>1592383953.805192</v>
       </c>
       <c r="H6" t="n">
-        <v>2049.319727891156</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -663,14 +723,26 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>98</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>93</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>1592383953.102989</v>
       </c>
     </row>
     <row r="7">
@@ -683,26 +755,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>First Practice</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1583927467.012</v>
+        <v>1592383953.807184</v>
       </c>
       <c r="G7" t="n">
-        <v>1583927469.405</v>
+        <v>1592383956.338378</v>
       </c>
       <c r="H7" t="n">
-        <v>2052.018140589569</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -711,13 +783,23 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>6</v>
-      </c>
-      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>85</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -727,15 +809,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>First Practice</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -744,13 +826,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1583927467.353</v>
+        <v>1592383956.339343</v>
       </c>
       <c r="G8" t="n">
-        <v>1583927469.723</v>
+        <v>1592383958.352698</v>
       </c>
       <c r="H8" t="n">
-        <v>2049.319727891156</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -759,13 +841,23 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>98</v>
-      </c>
-      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>109</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -779,26 +871,26 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>First Practice</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1583927469.405</v>
+        <v>1592383958.353697</v>
       </c>
       <c r="G9" t="n">
-        <v>1583927471.781</v>
+        <v>1592383960.366902</v>
       </c>
       <c r="H9" t="n">
-        <v>2052.018140589569</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -807,13 +899,23 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>109</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -823,15 +925,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>First Practice</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -840,13 +942,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1583927469.723</v>
+        <v>1592383960.367901</v>
       </c>
       <c r="G10" t="n">
-        <v>1583927471.81</v>
+        <v>1592383962.893086</v>
       </c>
       <c r="H10" t="n">
-        <v>1715.986394557823</v>
+        <v>2225.351473922903</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -855,14 +957,26 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>92</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>72</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>1592383960.978271</v>
       </c>
     </row>
     <row r="11">
@@ -871,15 +985,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>Second Practice</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -888,10 +1002,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1583927471.81</v>
+        <v>1592383968.480239</v>
       </c>
       <c r="G11" t="n">
-        <v>1583927473.841</v>
+        <v>1592383970.496722</v>
       </c>
       <c r="H11" t="n">
         <v>1715.986394557823</v>
@@ -903,13 +1017,23 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>92</v>
-      </c>
-      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>116</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -919,30 +1043,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>Second Practice</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1583927471.781</v>
+        <v>1592383968.479242</v>
       </c>
       <c r="G12" t="n">
-        <v>1583927474.352</v>
+        <v>1592383971.173654</v>
       </c>
       <c r="H12" t="n">
-        <v>2233.333333333333</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -951,13 +1075,23 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>22</v>
-      </c>
-      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>80</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,15 +1101,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>Second Practice</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -984,13 +1118,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1583927473.841</v>
+        <v>1592383970.496722</v>
       </c>
       <c r="G13" t="n">
-        <v>1583927476.237</v>
+        <v>1592383972.863841</v>
       </c>
       <c r="H13" t="n">
-        <v>2062.65306122449</v>
+        <v>2065.351473922902</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -999,13 +1133,23 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>86</v>
-      </c>
-      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>140</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1015,30 +1159,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>Second Practice</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1583927474.352</v>
+        <v>1592383971.173654</v>
       </c>
       <c r="G14" t="n">
-        <v>1583927476.895</v>
+        <v>1592383973.7007</v>
       </c>
       <c r="H14" t="n">
-        <v>2233.333333333333</v>
+        <v>2225.351473922903</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1047,13 +1191,23 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>22</v>
-      </c>
-      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>72</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1063,15 +1217,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>Second Practice</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1080,13 +1234,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1583927476.237</v>
+        <v>1592383972.863841</v>
       </c>
       <c r="G15" t="n">
-        <v>1583927478.473</v>
+        <v>1592383975.396353</v>
       </c>
       <c r="H15" t="n">
-        <v>1886.666666666667</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1095,13 +1249,23 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>100</v>
-      </c>
-      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>85</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1111,30 +1275,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>Second Practice</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1583927476.895</v>
+        <v>1592383973.7007</v>
       </c>
       <c r="G16" t="n">
-        <v>1583927480.482</v>
+        <v>1592383976.227131</v>
       </c>
       <c r="H16" t="n">
-        <v>3257.34693877551</v>
+        <v>2225.351473922903</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1143,13 +1307,23 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>7</v>
-      </c>
-      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>72</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1163,26 +1337,26 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>Second Practice</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1583927480.482</v>
+        <v>1592383975.396353</v>
       </c>
       <c r="G17" t="n">
-        <v>1583927483.043</v>
+        <v>1592383977.927674</v>
       </c>
       <c r="H17" t="n">
-        <v>2220</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1191,13 +1365,25 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>32</v>
-      </c>
-      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>85</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>1592383976.603644</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1211,11 +1397,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Real Trials</t>
+          <t>Second Practice</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1224,10 +1410,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1583927513.02</v>
+        <v>1592383976.227131</v>
       </c>
       <c r="G18" t="n">
-        <v>1583927515.594</v>
+        <v>1592383978.757525</v>
       </c>
       <c r="H18" t="n">
         <v>2228.004535147392</v>
@@ -1239,14 +1425,28 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>95</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>106</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1592383976.603644</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>1592383978.228428</v>
       </c>
     </row>
     <row r="19">
@@ -1268,17 +1468,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1583927513.532</v>
+        <v>1592383982.919976</v>
       </c>
       <c r="G19" t="n">
-        <v>1583927516.265</v>
+        <v>1592383985.109701</v>
       </c>
       <c r="H19" t="n">
-        <v>2401.337868480726</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1287,13 +1487,23 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>59</v>
-      </c>
-      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>93</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1307,7 +1517,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1316,14 +1526,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1583927515.594</v>
+        <v>1592383982.920974</v>
       </c>
       <c r="G20" t="n">
-        <v>1583927517.969</v>
+        <v>1592383985.285193</v>
       </c>
       <c r="H20" t="n">
         <v>2062.65306122449</v>
@@ -1335,13 +1545,23 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>86</v>
-      </c>
-      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1364,17 +1584,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1583927516.265</v>
+        <v>1592383985.109701</v>
       </c>
       <c r="G21" t="n">
-        <v>1583927519.853</v>
+        <v>1592383987.636801</v>
       </c>
       <c r="H21" t="n">
-        <v>3252.018140589569</v>
+        <v>2225.351473922903</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1383,13 +1603,23 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>18</v>
-      </c>
-      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>72</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1403,7 +1633,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1412,17 +1642,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1583927517.969</v>
+        <v>1592383985.285193</v>
       </c>
       <c r="G22" t="n">
-        <v>1583927520.003</v>
+        <v>1592383988.163398</v>
       </c>
       <c r="H22" t="n">
-        <v>1713.333333333333</v>
+        <v>2577.34693877551</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1431,14 +1661,26 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>1592383987.854218</v>
       </c>
     </row>
     <row r="23">
@@ -1447,11 +1689,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1464,13 +1706,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1583927520.003</v>
+        <v>1592383987.636801</v>
       </c>
       <c r="G23" t="n">
-        <v>1583927522.027</v>
+        <v>1592383990.004554</v>
       </c>
       <c r="H23" t="n">
-        <v>1713.333333333333</v>
+        <v>2065.351473922902</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1479,16 +1721,26 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>140</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>1592383987.854218</v>
       </c>
     </row>
     <row r="24">
@@ -1497,7 +1749,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1514,10 +1766,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1583927519.853</v>
+        <v>1592383988.163398</v>
       </c>
       <c r="G24" t="n">
-        <v>1583927522.239</v>
+        <v>1592383990.527817</v>
       </c>
       <c r="H24" t="n">
         <v>2062.65306122449</v>
@@ -1529,16 +1781,24 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>66</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>138</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1547,11 +1807,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1564,13 +1824,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1583927522.027</v>
+        <v>1592383990.004554</v>
       </c>
       <c r="G25" t="n">
-        <v>1583927524.23</v>
+        <v>1592383992.371541</v>
       </c>
       <c r="H25" t="n">
-        <v>1886.666666666667</v>
+        <v>2065.351473922902</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1579,16 +1839,24 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>100</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>140</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1597,7 +1865,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1614,10 +1882,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1583927522.239</v>
+        <v>1592383990.527817</v>
       </c>
       <c r="G26" t="n">
-        <v>1583927524.615</v>
+        <v>1592383992.891702</v>
       </c>
       <c r="H26" t="n">
         <v>2062.65306122449</v>
@@ -1629,16 +1897,26 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>66</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>138</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>1592383992.480763</v>
       </c>
     </row>
     <row r="27">
@@ -1647,11 +1925,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1664,13 +1942,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1583927524.23</v>
+        <v>1592383992.371541</v>
       </c>
       <c r="G27" t="n">
-        <v>1583927526.465</v>
+        <v>1592383995.066762</v>
       </c>
       <c r="H27" t="n">
-        <v>1889.319727891156</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1679,16 +1957,28 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>93</v>
-      </c>
-      <c r="N27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>80</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>1592383993.478691</v>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
+      </c>
+      <c r="R27" t="n">
+        <v>1592383992.480763</v>
       </c>
     </row>
     <row r="28">
@@ -1697,7 +1987,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1714,10 +2004,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1583927524.615</v>
+        <v>1592383992.891702</v>
       </c>
       <c r="G28" t="n">
-        <v>1583927527.012</v>
+        <v>1592383995.245439</v>
       </c>
       <c r="H28" t="n">
         <v>2052.018140589569</v>
@@ -1729,16 +2019,26 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>26</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>136</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>1592383993.478691</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1747,11 +2047,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1764,13 +2064,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1583927526.465</v>
+        <v>1592383995.066762</v>
       </c>
       <c r="G29" t="n">
-        <v>1583927528.669</v>
+        <v>1592383997.599051</v>
       </c>
       <c r="H29" t="n">
-        <v>1889.319727891156</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1779,16 +2079,24 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>93</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>85</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1797,7 +2105,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1814,13 +2122,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1583927527.012</v>
+        <v>1592383995.245439</v>
       </c>
       <c r="G30" t="n">
-        <v>1583927529.545</v>
+        <v>1592383998.280895</v>
       </c>
       <c r="H30" t="n">
-        <v>2220</v>
+        <v>2734.671201814059</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1829,16 +2137,24 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>32</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>132</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1847,11 +2163,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1864,13 +2180,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1583927528.669</v>
+        <v>1592383997.599051</v>
       </c>
       <c r="G31" t="n">
-        <v>1583927531.401</v>
+        <v>1592384000.130813</v>
       </c>
       <c r="H31" t="n">
-        <v>2393.333333333334</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1879,13 +2195,23 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>80</v>
-      </c>
-      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>85</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1895,7 +2221,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1912,13 +2238,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1583927529.545</v>
+        <v>1592383998.280895</v>
       </c>
       <c r="G32" t="n">
-        <v>1583927532.068</v>
+        <v>1592384001.317105</v>
       </c>
       <c r="H32" t="n">
-        <v>2220</v>
+        <v>2734.671201814059</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1927,13 +2253,25 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>32</v>
-      </c>
-      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>132</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>1592384000.22805</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1956,17 +2294,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1583927532.068</v>
+        <v>1592384000.130813</v>
       </c>
       <c r="G33" t="n">
-        <v>1583927534.435</v>
+        <v>1592384002.146124</v>
       </c>
       <c r="H33" t="n">
-        <v>2052.018140589569</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1975,14 +2313,3842 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>109</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>1592384000.22805</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>7</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1592384001.317105</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1592384005.060878</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3414.671201814059</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>123</v>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1592384006.064797</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1592384008.427897</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2062.65306122449</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>15</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1592384006.062799</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1592384008.590458</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2225.351473922903</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>72</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1592384008.590458</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1592384011.119312</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2228.004535147392</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>106</v>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1592384008.427897</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1592384011.464393</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2734.671201814059</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>132</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1592384011.119312</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1592384013.129844</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1708.004535147392</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>74</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1592384013.129844</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1592384015.139532</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1708.004535147392</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>74</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1592384011.464393</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1592384015.181192</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3414.671201814059</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>34</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1592384015.139532</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1592384017.834244</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2393.333333333334</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>80</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>1592384016.416169</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1592384015.181192</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1592384018.897565</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3414.671201814059</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>34</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>1592384016.416169</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>1592384018.851655</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1592384017.834244</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1592384020.529529</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2393.333333333334</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>80</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1592384018.851655</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1592384018.897565</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1592384021.278554</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2052.018140589569</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>6</v>
       </c>
-      <c r="N33" t="b">
-        <v>0</v>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>1592384020.604329</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1592384020.529529</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1592384023.058887</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2228.004535147392</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>112</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>1592384020.604329</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1592384021.278554</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1592384023.631425</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2052.018140589569</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>0</v>
+      </c>
+      <c r="R47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>7</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1592384023.058887</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1592384025.424955</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2065.351473922902</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>140</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>1592384024.351157</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1592384023.631425</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1592384026.510698</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2577.34693877551</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>1592384024.351157</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>7</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1592384026.510698</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1592384028.87341</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2062.65306122449</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>138</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1592384041.42447</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1592384043.615052</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1889.319727891156</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>93</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1592384041.425468</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1592384045.142381</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3414.671201814059</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>123</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1592384043.615052</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1592384046.141741</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2225.351473922903</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>72</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1592384045.142381</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1592384048.021396</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2577.34693877551</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>10</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1592384046.141741</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1592384048.50893</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2065.351473922902</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>140</v>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1592384048.021396</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1592384050.385957</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2062.65306122449</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>138</v>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1592384048.50893</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1592384050.875182</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2065.351473922902</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>140</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>0</v>
+      </c>
+      <c r="R57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1592384050.385957</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1592384052.750607</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2062.65306122449</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>138</v>
+      </c>
+      <c r="O58" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>0</v>
+      </c>
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1592384050.875182</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1592384053.570027</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2393.333333333334</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>80</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>1592384052.91517</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>0</v>
+      </c>
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1592384052.750607</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1592384055.104323</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2052.018140589569</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>136</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>1592384052.91517</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>0</v>
+      </c>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1592384053.570027</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1592384056.103248</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2230.680272108843</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>85</v>
+      </c>
+      <c r="O61" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>0</v>
+      </c>
+      <c r="R61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1592384055.104323</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1592384058.140708</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2734.671201814059</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>132</v>
+      </c>
+      <c r="O62" t="b">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="b">
+        <v>0</v>
+      </c>
+      <c r="R62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>6</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1592384056.103248</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1592384058.636149</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2230.680272108843</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>85</v>
+      </c>
+      <c r="O63" t="b">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
+      <c r="R63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>7</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1592384058.636149</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1592384060.65119</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1713.333333333333</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>109</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>1592384059.914915</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>0</v>
+      </c>
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>6</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1592384058.140708</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1592384061.176788</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2734.671201814059</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>132</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>1592384059.914915</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>1592384061.04112</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>7</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1592384061.176788</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1592384064.892872</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3414.671201814059</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>123</v>
+      </c>
+      <c r="O66" t="b">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>0</v>
+      </c>
+      <c r="R66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1592384065.895571</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1592384067.905868</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1708.004535147392</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>74</v>
+      </c>
+      <c r="O67" t="b">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>0</v>
+      </c>
+      <c r="R67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1592384065.896568</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1592384069.613509</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3414.671201814059</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>34</v>
+      </c>
+      <c r="O68" t="b">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="b">
+        <v>0</v>
+      </c>
+      <c r="R68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1592384067.905868</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1592384070.436402</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2228.004535147392</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>106</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>1592384070.103168</v>
+      </c>
+      <c r="Q69" t="b">
+        <v>0</v>
+      </c>
+      <c r="R69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>1592384070.436402</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1592384072.446438</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1708.004535147392</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>74</v>
+      </c>
+      <c r="O70" t="b">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="b">
+        <v>0</v>
+      </c>
+      <c r="R70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1592384069.613509</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1592384072.648933</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2734.671201814059</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>132</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>1592384070.103168</v>
+      </c>
+      <c r="Q71" t="b">
+        <v>0</v>
+      </c>
+      <c r="R71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1592384072.446438</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1592384074.455877</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1708.004535147392</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>74</v>
+      </c>
+      <c r="O72" t="b">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="b">
+        <v>0</v>
+      </c>
+      <c r="R72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1592384072.648933</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1592384076.36529</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3414.671201814059</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>34</v>
+      </c>
+      <c r="O73" t="b">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="b">
+        <v>0</v>
+      </c>
+      <c r="R73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1592384074.455877</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1592384077.151701</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2393.333333333334</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>80</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>1592384076.478987</v>
+      </c>
+      <c r="Q74" t="b">
+        <v>0</v>
+      </c>
+      <c r="R74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>5</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1592384077.151701</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1592384079.847275</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2393.333333333334</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>80</v>
+      </c>
+      <c r="O75" t="b">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>1592384079.603728</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1592384076.36529</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1592384080.081198</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3414.671201814059</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>34</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>1592384076.478987</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1592384079.603728</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>6</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1592384079.847275</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1592384082.37706</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2228.004535147392</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>112</v>
+      </c>
+      <c r="O77" t="b">
+        <v>0</v>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="b">
+        <v>0</v>
+      </c>
+      <c r="R77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>4</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1592384080.081198</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1592384082.434905</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2052.018140589569</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6</v>
+      </c>
+      <c r="O78" t="b">
+        <v>0</v>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>0</v>
+      </c>
+      <c r="R78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>7</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1592384082.37706</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1592384084.743542</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2065.351473922902</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>140</v>
+      </c>
+      <c r="O79" t="b">
+        <v>0</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="b">
+        <v>0</v>
+      </c>
+      <c r="R79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1592384082.434905</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1592384084.788935</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2052.018140589569</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6</v>
+      </c>
+      <c r="O80" t="b">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="b">
+        <v>0</v>
+      </c>
+      <c r="R80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>6</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1592384084.788935</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1592384087.668657</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2577.34693877551</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>10</v>
+      </c>
+      <c r="O81" t="b">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>1592384086.601887</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>7</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1592384087.668657</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1592384090.032125</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2062.65306122449</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>138</v>
+      </c>
+      <c r="O82" t="b">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="b">
+        <v>0</v>
+      </c>
+      <c r="R82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1592384149.298796</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1592384151.66181</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2062.65306122449</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>138</v>
+      </c>
+      <c r="O83" t="b">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="b">
+        <v>0</v>
+      </c>
+      <c r="R83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1592384149.296802</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1592384151.823385</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2225.351473922903</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="n">
+        <v>118</v>
+      </c>
+      <c r="O84" t="b">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="b">
+        <v>0</v>
+      </c>
+      <c r="R84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1592384151.823385</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1592384154.35013</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2225.351473922903</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>72</v>
+      </c>
+      <c r="O85" t="b">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="b">
+        <v>0</v>
+      </c>
+      <c r="R85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1592384151.66181</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1592384154.540621</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2577.34693877551</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="n">
+        <v>10</v>
+      </c>
+      <c r="O86" t="b">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="b">
+        <v>0</v>
+      </c>
+      <c r="R86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1592384154.35013</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1592384156.715904</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2065.351473922902</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>140</v>
+      </c>
+      <c r="O87" t="b">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="b">
+        <v>0</v>
+      </c>
+      <c r="R87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1592384154.540621</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1592384156.903932</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2062.65306122449</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="n">
+        <v>138</v>
+      </c>
+      <c r="O88" t="b">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="b">
+        <v>0</v>
+      </c>
+      <c r="R88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1592384156.715904</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1592384159.082702</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2065.351473922902</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="n">
+        <v>140</v>
+      </c>
+      <c r="O89" t="b">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="b">
+        <v>0</v>
+      </c>
+      <c r="R89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1592384156.903932</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1592384159.268204</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2062.65306122449</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="n">
+        <v>138</v>
+      </c>
+      <c r="O90" t="b">
+        <v>0</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="b">
+        <v>0</v>
+      </c>
+      <c r="R90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1592384159.268204</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1592384161.621688</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2052.018140589569</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="n">
+        <v>136</v>
+      </c>
+      <c r="O91" t="b">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="b">
+        <v>0</v>
+      </c>
+      <c r="R91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1592384159.082702</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1592384161.778872</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2393.333333333334</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="n">
+        <v>80</v>
+      </c>
+      <c r="O92" t="b">
+        <v>0</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="b">
+        <v>0</v>
+      </c>
+      <c r="R92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1592384161.778872</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1592384164.310103</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2230.680272108843</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="n">
+        <v>85</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>1592384162.105517</v>
+      </c>
+      <c r="Q93" t="b">
+        <v>0</v>
+      </c>
+      <c r="R93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>5</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1592384161.621688</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1592384164.658173</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2734.671201814059</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>132</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>1592384162.105517</v>
+      </c>
+      <c r="Q94" t="b">
+        <v>0</v>
+      </c>
+      <c r="R94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>6</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1592384164.310103</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1592384166.841905</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2230.680272108843</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="n">
+        <v>85</v>
+      </c>
+      <c r="O95" t="b">
+        <v>0</v>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="b">
+        <v>0</v>
+      </c>
+      <c r="R95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>6</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>1592384164.658173</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1592384167.693231</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2734.671201814059</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>132</v>
+      </c>
+      <c r="O96" t="b">
+        <v>0</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="b">
+        <v>0</v>
+      </c>
+      <c r="R96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>7</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1592384166.841905</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1592384168.8568</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1713.333333333333</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>109</v>
+      </c>
+      <c r="O97" t="b">
+        <v>0</v>
+      </c>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="b">
+        <v>0</v>
+      </c>
+      <c r="R97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>7</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Real Trials</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1592384167.693231</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1592384171.408956</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3414.671201814059</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="n">
+        <v>123</v>
+      </c>
+      <c r="O98" t="b">
+        <v>0</v>
+      </c>
+      <c r="P98" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>1592384169.227378</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Subject_1/Dichotic.xlsx
+++ b/Data/Subject_1/Dichotic.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -476,27 +476,39 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1592383943.355708</v>
+        <v>1592942238.873808</v>
       </c>
       <c r="G2" t="n">
-        <v>1592383945.542083</v>
+        <v>1592942241.408735</v>
       </c>
       <c r="H2" t="n">
-        <v>1886.666666666667</v>
+        <v>2235.986394557823</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -534,27 +546,39 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1592383945.54308</v>
+        <v>1592942241.409697</v>
       </c>
       <c r="G3" t="n">
-        <v>1592383947.569413</v>
+        <v>1592942243.759917</v>
       </c>
       <c r="H3" t="n">
-        <v>1726.666666666667</v>
+        <v>2049.319727891156</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -592,27 +616,39 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1592383947.57041</v>
+        <v>1592942243.760916</v>
       </c>
       <c r="G4" t="n">
-        <v>1592383949.578305</v>
+        <v>1592942246.290102</v>
       </c>
       <c r="H4" t="n">
-        <v>1708.004535147392</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -650,27 +686,39 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1592383949.579303</v>
+        <v>1592942246.2911</v>
       </c>
       <c r="G5" t="n">
-        <v>1592383951.587676</v>
+        <v>1592942248.304769</v>
       </c>
       <c r="H5" t="n">
-        <v>1708.004535147392</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -708,27 +756,39 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1592383951.615276</v>
+        <v>1592942248.304769</v>
       </c>
       <c r="G6" t="n">
-        <v>1592383953.805192</v>
+        <v>1592942250.318592</v>
       </c>
       <c r="H6" t="n">
-        <v>1889.319727891156</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -736,13 +796,11 @@
       <c r="P6" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>1592383953.102989</v>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -768,27 +826,39 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1592383953.807184</v>
+        <v>1592942250.319588</v>
       </c>
       <c r="G7" t="n">
-        <v>1592383956.338378</v>
+        <v>1592942253.009671</v>
       </c>
       <c r="H7" t="n">
-        <v>2230.680272108843</v>
+        <v>2390.680272108844</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -826,27 +896,39 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1592383956.339343</v>
+        <v>1592942253.009671</v>
       </c>
       <c r="G8" t="n">
-        <v>1592383958.352698</v>
+        <v>1592942255.540442</v>
       </c>
       <c r="H8" t="n">
-        <v>1713.333333333333</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -884,27 +966,39 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1592383958.353697</v>
+        <v>1592942255.541438</v>
       </c>
       <c r="G9" t="n">
-        <v>1592383960.366902</v>
+        <v>1592942258.069629</v>
       </c>
       <c r="H9" t="n">
-        <v>1713.333333333333</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -942,27 +1036,39 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1592383960.367901</v>
+        <v>1592942258.070628</v>
       </c>
       <c r="G10" t="n">
-        <v>1592383962.893086</v>
+        <v>1592942260.599029</v>
       </c>
       <c r="H10" t="n">
-        <v>2225.351473922903</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -970,13 +1076,11 @@
       <c r="P10" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>1592383960.978271</v>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1002,27 +1106,39 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1592383968.480239</v>
+        <v>1592942261.206302</v>
       </c>
       <c r="G11" t="n">
-        <v>1592383970.496722</v>
+        <v>1592942263.73724</v>
       </c>
       <c r="H11" t="n">
-        <v>1715.986394557823</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1060,27 +1176,39 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1592383968.479242</v>
+        <v>1592942261.205298</v>
       </c>
       <c r="G12" t="n">
-        <v>1592383971.173654</v>
+        <v>1592942263.895818</v>
       </c>
       <c r="H12" t="n">
-        <v>2393.333333333334</v>
+        <v>2390.680272108844</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1101,7 +1229,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1118,27 +1246,39 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1592383970.496722</v>
+        <v>1592942263.895818</v>
       </c>
       <c r="G13" t="n">
-        <v>1592383972.863841</v>
+        <v>1592942266.4247</v>
       </c>
       <c r="H13" t="n">
-        <v>2065.351473922902</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1159,7 +1299,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1176,27 +1316,39 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1592383971.173654</v>
+        <v>1592942263.73724</v>
       </c>
       <c r="G14" t="n">
-        <v>1592383973.7007</v>
+        <v>1592942266.609291</v>
       </c>
       <c r="H14" t="n">
-        <v>2225.351473922903</v>
+        <v>2569.319727891156</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1217,7 +1369,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1234,27 +1386,39 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1592383972.863841</v>
+        <v>1592942266.4247</v>
       </c>
       <c r="G15" t="n">
-        <v>1592383975.396353</v>
+        <v>1592942268.95446</v>
       </c>
       <c r="H15" t="n">
-        <v>2230.680272108843</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1275,7 +1439,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1292,27 +1456,39 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1592383973.7007</v>
+        <v>1592942266.609291</v>
       </c>
       <c r="G16" t="n">
-        <v>1592383976.227131</v>
+        <v>1592942269.480051</v>
       </c>
       <c r="H16" t="n">
-        <v>2225.351473922903</v>
+        <v>2569.319727891156</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1333,7 +1509,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1350,35 +1526,45 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1592383975.396353</v>
+        <v>1592942268.95446</v>
       </c>
       <c r="G17" t="n">
-        <v>1592383977.927674</v>
+        <v>1592942271.143799</v>
       </c>
       <c r="H17" t="n">
-        <v>2230.680272108843</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>85</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>1592383976.603644</v>
+        <v>93</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
@@ -1393,7 +1579,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1410,43 +1596,51 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1592383976.227131</v>
+        <v>1592942269.480051</v>
       </c>
       <c r="G18" t="n">
-        <v>1592383978.757525</v>
+        <v>1592942271.829967</v>
       </c>
       <c r="H18" t="n">
-        <v>2228.004535147392</v>
+        <v>2049.319727891156</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>106</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>1592383976.603644</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>1592383978.228428</v>
+        <v>102</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1472,27 +1666,39 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1592383982.919976</v>
+        <v>1592942282.088684</v>
       </c>
       <c r="G19" t="n">
-        <v>1592383985.109701</v>
+        <v>1592942284.625614</v>
       </c>
       <c r="H19" t="n">
-        <v>1889.319727891156</v>
+        <v>2235.986394557823</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -1530,27 +1736,39 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1592383982.920974</v>
+        <v>1592942282.08968</v>
       </c>
       <c r="G20" t="n">
-        <v>1592383985.285193</v>
+        <v>1592942285.804882</v>
       </c>
       <c r="H20" t="n">
-        <v>2062.65306122449</v>
+        <v>3414.671201814059</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -1588,27 +1806,39 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1592383985.109701</v>
+        <v>1592942284.625614</v>
       </c>
       <c r="G21" t="n">
-        <v>1592383987.636801</v>
+        <v>1592942287.153934</v>
       </c>
       <c r="H21" t="n">
-        <v>2225.351473922903</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -1646,27 +1876,39 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1592383985.285193</v>
+        <v>1592942285.804882</v>
       </c>
       <c r="G22" t="n">
-        <v>1592383988.163398</v>
+        <v>1592942288.509039</v>
       </c>
       <c r="H22" t="n">
-        <v>2577.34693877551</v>
+        <v>2401.337868480726</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -1674,13 +1916,11 @@
       <c r="P22" t="b">
         <v>0</v>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>1592383987.854218</v>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1706,27 +1946,39 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1592383987.636801</v>
+        <v>1592942287.153934</v>
       </c>
       <c r="G23" t="n">
-        <v>1592383990.004554</v>
+        <v>1592942289.683107</v>
       </c>
       <c r="H23" t="n">
-        <v>2065.351473922902</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -1734,13 +1986,11 @@
       <c r="P23" t="b">
         <v>0</v>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>1592383987.854218</v>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1766,27 +2016,39 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1592383988.163398</v>
+        <v>1592942288.509039</v>
       </c>
       <c r="G24" t="n">
-        <v>1592383990.527817</v>
+        <v>1592942291.031446</v>
       </c>
       <c r="H24" t="n">
-        <v>2062.65306122449</v>
+        <v>2220</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -1824,27 +2086,39 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1592383990.004554</v>
+        <v>1592942289.683107</v>
       </c>
       <c r="G25" t="n">
-        <v>1592383992.371541</v>
+        <v>1592942292.21229</v>
       </c>
       <c r="H25" t="n">
-        <v>2065.351473922902</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
@@ -1882,27 +2156,39 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1592383990.527817</v>
+        <v>1592942291.031446</v>
       </c>
       <c r="G26" t="n">
-        <v>1592383992.891702</v>
+        <v>1592942293.551408</v>
       </c>
       <c r="H26" t="n">
-        <v>2062.65306122449</v>
+        <v>2220</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
@@ -1910,13 +2196,11 @@
       <c r="P26" t="b">
         <v>0</v>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>1592383992.480763</v>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1942,43 +2226,51 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1592383992.371541</v>
+        <v>1592942292.21229</v>
       </c>
       <c r="G27" t="n">
-        <v>1592383995.066762</v>
+        <v>1592942294.580033</v>
       </c>
       <c r="H27" t="n">
-        <v>2393.333333333334</v>
+        <v>2065.351473922902</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>80</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>1592383993.478691</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>1592383992.480763</v>
+        <v>91</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2004,10 +2296,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1592383992.891702</v>
+        <v>1592942293.551408</v>
       </c>
       <c r="G28" t="n">
-        <v>1592383995.245439</v>
+        <v>1592942295.90608</v>
       </c>
       <c r="H28" t="n">
         <v>2052.018140589569</v>
@@ -2017,22 +2309,32 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>136</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>1592383993.478691</v>
+        <v>26</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
       <c r="Q28" t="b">
         <v>0</v>
@@ -2064,27 +2366,39 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1592383995.066762</v>
+        <v>1592942294.580033</v>
       </c>
       <c r="G29" t="n">
-        <v>1592383997.599051</v>
+        <v>1592942296.945944</v>
       </c>
       <c r="H29" t="n">
-        <v>2230.680272108843</v>
+        <v>2065.351473922902</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -2122,27 +2436,39 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1592383995.245439</v>
+        <v>1592942295.90608</v>
       </c>
       <c r="G30" t="n">
-        <v>1592383998.280895</v>
+        <v>1592942298.444632</v>
       </c>
       <c r="H30" t="n">
-        <v>2734.671201814059</v>
+        <v>2238.684807256236</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O30" t="b">
         <v>0</v>
@@ -2180,27 +2506,39 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1592383997.599051</v>
+        <v>1592942296.945944</v>
       </c>
       <c r="G31" t="n">
-        <v>1592384000.130813</v>
+        <v>1592942299.816079</v>
       </c>
       <c r="H31" t="n">
-        <v>2230.680272108843</v>
+        <v>2569.319727891156</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
@@ -2238,35 +2576,45 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1592383998.280895</v>
+        <v>1592942298.444632</v>
       </c>
       <c r="G32" t="n">
-        <v>1592384001.317105</v>
+        <v>1592942300.983361</v>
       </c>
       <c r="H32" t="n">
-        <v>2734.671201814059</v>
+        <v>2238.684807256236</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>132</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>1592384000.22805</v>
+        <v>121</v>
+      </c>
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
       <c r="Q32" t="b">
         <v>0</v>
@@ -2298,35 +2646,45 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1592384000.130813</v>
+        <v>1592942299.816079</v>
       </c>
       <c r="G33" t="n">
-        <v>1592384002.146124</v>
+        <v>1592942302.005776</v>
       </c>
       <c r="H33" t="n">
-        <v>1713.333333333333</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>109</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>1592384000.22805</v>
+        <v>93</v>
+      </c>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
       <c r="Q33" t="b">
         <v>0</v>
@@ -2358,27 +2716,39 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1592384001.317105</v>
+        <v>1592942300.983361</v>
       </c>
       <c r="G34" t="n">
-        <v>1592384005.060878</v>
+        <v>1592942304.544621</v>
       </c>
       <c r="H34" t="n">
-        <v>3414.671201814059</v>
+        <v>3257.34693877551</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -2399,7 +2769,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2412,31 +2782,43 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1592384006.064797</v>
+        <v>1592942305.546147</v>
       </c>
       <c r="G35" t="n">
-        <v>1592384008.427897</v>
+        <v>1592942308.07614</v>
       </c>
       <c r="H35" t="n">
-        <v>2062.65306122449</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="O35" t="b">
         <v>0</v>
@@ -2457,7 +2839,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2470,31 +2852,43 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1592384006.062799</v>
+        <v>1592942305.547143</v>
       </c>
       <c r="G36" t="n">
-        <v>1592384008.590458</v>
+        <v>1592942308.416539</v>
       </c>
       <c r="H36" t="n">
-        <v>2225.351473922903</v>
+        <v>2566.666666666667</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="O36" t="b">
         <v>0</v>
@@ -2532,27 +2926,39 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1592384008.590458</v>
+        <v>1592942308.07614</v>
       </c>
       <c r="G37" t="n">
-        <v>1592384011.119312</v>
+        <v>1592942310.611657</v>
       </c>
       <c r="H37" t="n">
-        <v>2228.004535147392</v>
+        <v>2235.986394557823</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="O37" t="b">
         <v>0</v>
@@ -2590,27 +2996,39 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1592384008.427897</v>
+        <v>1592942308.416539</v>
       </c>
       <c r="G38" t="n">
-        <v>1592384011.464393</v>
+        <v>1592942310.93675</v>
       </c>
       <c r="H38" t="n">
-        <v>2734.671201814059</v>
+        <v>2220</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="O38" t="b">
         <v>0</v>
@@ -2648,27 +3066,39 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1592384011.119312</v>
+        <v>1592942310.611657</v>
       </c>
       <c r="G39" t="n">
-        <v>1592384013.129844</v>
+        <v>1592942313.481354</v>
       </c>
       <c r="H39" t="n">
-        <v>1708.004535147392</v>
+        <v>2569.319727891156</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="O39" t="b">
         <v>0</v>
@@ -2689,11 +3119,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2702,31 +3132,43 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1592384013.129844</v>
+        <v>1592942310.93675</v>
       </c>
       <c r="G40" t="n">
-        <v>1592384015.139532</v>
+        <v>1592942313.816506</v>
       </c>
       <c r="H40" t="n">
-        <v>1708.004535147392</v>
+        <v>2577.34693877551</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="O40" t="b">
         <v>0</v>
@@ -2747,11 +3189,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2760,31 +3202,43 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1592384011.464393</v>
+        <v>1592942313.481354</v>
       </c>
       <c r="G41" t="n">
-        <v>1592384015.181192</v>
+        <v>1592942316.351119</v>
       </c>
       <c r="H41" t="n">
-        <v>3414.671201814059</v>
+        <v>2569.319727891156</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="O41" t="b">
         <v>0</v>
@@ -2805,11 +3259,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2818,39 +3272,49 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1592384015.139532</v>
+        <v>1592942313.816506</v>
       </c>
       <c r="G42" t="n">
-        <v>1592384017.834244</v>
+        <v>1592942316.694669</v>
       </c>
       <c r="H42" t="n">
-        <v>2393.333333333334</v>
+        <v>2577.34693877551</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>80</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>1592384016.416169</v>
+        <v>10</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
       <c r="Q42" t="b">
         <v>0</v>
@@ -2865,11 +3329,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2878,47 +3342,55 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1592384015.181192</v>
+        <v>1592942316.351119</v>
       </c>
       <c r="G43" t="n">
-        <v>1592384018.897565</v>
+        <v>1592942318.540975</v>
       </c>
       <c r="H43" t="n">
-        <v>3414.671201814059</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>34</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>1592384016.416169</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R43" t="n">
-        <v>1592384018.851655</v>
+        <v>93</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>0</v>
+      </c>
+      <c r="R43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2927,11 +3399,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2940,31 +3412,43 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1592384017.834244</v>
+        <v>1592942316.694669</v>
       </c>
       <c r="G44" t="n">
-        <v>1592384020.529529</v>
+        <v>1592942319.404706</v>
       </c>
       <c r="H44" t="n">
-        <v>2393.333333333334</v>
+        <v>2406.666666666667</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="O44" t="b">
         <v>0</v>
@@ -2972,13 +3456,11 @@
       <c r="P44" t="b">
         <v>0</v>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>1592384018.851655</v>
+      <c r="Q44" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2987,11 +3469,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3000,39 +3482,49 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1592384018.897565</v>
+        <v>1592942318.540975</v>
       </c>
       <c r="G45" t="n">
-        <v>1592384021.278554</v>
+        <v>1592942320.731412</v>
       </c>
       <c r="H45" t="n">
-        <v>2052.018140589569</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>6</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>1592384020.604329</v>
+        <v>93</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
       <c r="Q45" t="b">
         <v>0</v>
@@ -3047,11 +3539,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3060,39 +3552,49 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1592384020.529529</v>
+        <v>1592942319.404706</v>
       </c>
       <c r="G46" t="n">
-        <v>1592384023.058887</v>
+        <v>1592942322.111038</v>
       </c>
       <c r="H46" t="n">
-        <v>2228.004535147392</v>
+        <v>2406.666666666667</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>112</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>1592384020.604329</v>
+        <v>120</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
       <c r="Q46" t="b">
         <v>0</v>
@@ -3107,11 +3609,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3120,31 +3622,43 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1592384021.278554</v>
+        <v>1592942320.731412</v>
       </c>
       <c r="G47" t="n">
-        <v>1592384023.631425</v>
+        <v>1592942323.08163</v>
       </c>
       <c r="H47" t="n">
-        <v>2052.018140589569</v>
+        <v>2049.319727891156</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="O47" t="b">
         <v>0</v>
@@ -3165,11 +3679,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3178,39 +3692,49 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1592384023.058887</v>
+        <v>1592942322.111038</v>
       </c>
       <c r="G48" t="n">
-        <v>1592384025.424955</v>
+        <v>1592942324.650217</v>
       </c>
       <c r="H48" t="n">
-        <v>2065.351473922902</v>
+        <v>2238.684807256236</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>140</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>1592384024.351157</v>
+        <v>121</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
       </c>
       <c r="Q48" t="b">
         <v>0</v>
@@ -3225,11 +3749,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3238,39 +3762,49 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1592384023.631425</v>
+        <v>1592942323.08163</v>
       </c>
       <c r="G49" t="n">
-        <v>1592384026.510698</v>
+        <v>1592942325.094986</v>
       </c>
       <c r="H49" t="n">
-        <v>2577.34693877551</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>1592384024.351157</v>
+        <v>76</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
       </c>
       <c r="Q49" t="b">
         <v>0</v>
@@ -3302,27 +3836,39 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1592384026.510698</v>
+        <v>1592942324.650217</v>
       </c>
       <c r="G50" t="n">
-        <v>1592384028.87341</v>
+        <v>1592942328.364342</v>
       </c>
       <c r="H50" t="n">
-        <v>2062.65306122449</v>
+        <v>3414.671201814059</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="O50" t="b">
         <v>0</v>
@@ -3360,27 +3906,39 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1592384041.42447</v>
+        <v>1592942596.585581</v>
       </c>
       <c r="G51" t="n">
-        <v>1592384043.615052</v>
+        <v>1592942599.11685</v>
       </c>
       <c r="H51" t="n">
-        <v>1889.319727891156</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="O51" t="b">
         <v>0</v>
@@ -3418,10 +3976,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1592384041.425468</v>
+        <v>1592942596.586611</v>
       </c>
       <c r="G52" t="n">
-        <v>1592384045.142381</v>
+        <v>1592942600.301838</v>
       </c>
       <c r="H52" t="n">
         <v>3414.671201814059</v>
@@ -3431,14 +3989,26 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="O52" t="b">
         <v>0</v>
@@ -3476,27 +4046,39 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1592384043.615052</v>
+        <v>1592942599.11685</v>
       </c>
       <c r="G53" t="n">
-        <v>1592384046.141741</v>
+        <v>1592942601.644648</v>
       </c>
       <c r="H53" t="n">
-        <v>2225.351473922903</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="O53" t="b">
         <v>0</v>
@@ -3534,27 +4116,39 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1592384045.142381</v>
+        <v>1592942600.301838</v>
       </c>
       <c r="G54" t="n">
-        <v>1592384048.021396</v>
+        <v>1592942603.003464</v>
       </c>
       <c r="H54" t="n">
-        <v>2577.34693877551</v>
+        <v>2401.337868480726</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="O54" t="b">
         <v>0</v>
@@ -3592,27 +4186,39 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1592384046.141741</v>
+        <v>1592942601.644648</v>
       </c>
       <c r="G55" t="n">
-        <v>1592384048.50893</v>
+        <v>1592942604.17321</v>
       </c>
       <c r="H55" t="n">
-        <v>2065.351473922902</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="O55" t="b">
         <v>0</v>
@@ -3650,27 +4256,39 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1592384048.021396</v>
+        <v>1592942603.003464</v>
       </c>
       <c r="G56" t="n">
-        <v>1592384050.385957</v>
+        <v>1592942605.52408</v>
       </c>
       <c r="H56" t="n">
-        <v>2062.65306122449</v>
+        <v>2220</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="O56" t="b">
         <v>0</v>
@@ -3708,27 +4326,39 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1592384048.50893</v>
+        <v>1592942604.17321</v>
       </c>
       <c r="G57" t="n">
-        <v>1592384050.875182</v>
+        <v>1592942606.701365</v>
       </c>
       <c r="H57" t="n">
-        <v>2065.351473922902</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="O57" t="b">
         <v>0</v>
@@ -3766,27 +4396,39 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1592384050.385957</v>
+        <v>1592942605.52408</v>
       </c>
       <c r="G58" t="n">
-        <v>1592384052.750607</v>
+        <v>1592942608.045527</v>
       </c>
       <c r="H58" t="n">
-        <v>2062.65306122449</v>
+        <v>2220</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="O58" t="b">
         <v>0</v>
@@ -3824,35 +4466,45 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1592384050.875182</v>
+        <v>1592942606.701365</v>
       </c>
       <c r="G59" t="n">
-        <v>1592384053.570027</v>
+        <v>1592942609.067683</v>
       </c>
       <c r="H59" t="n">
-        <v>2393.333333333334</v>
+        <v>2065.351473922902</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>80</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>1592384052.91517</v>
+        <v>91</v>
+      </c>
+      <c r="O59" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
       </c>
       <c r="Q59" t="b">
         <v>0</v>
@@ -3884,10 +4536,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1592384052.750607</v>
+        <v>1592942608.045527</v>
       </c>
       <c r="G60" t="n">
-        <v>1592384055.104323</v>
+        <v>1592942610.398227</v>
       </c>
       <c r="H60" t="n">
         <v>2052.018140589569</v>
@@ -3897,22 +4549,32 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>136</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P60" t="n">
-        <v>1592384052.91517</v>
+        <v>26</v>
+      </c>
+      <c r="O60" t="b">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
       </c>
       <c r="Q60" t="b">
         <v>0</v>
@@ -3944,27 +4606,39 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1592384053.570027</v>
+        <v>1592942609.067683</v>
       </c>
       <c r="G61" t="n">
-        <v>1592384056.103248</v>
+        <v>1592942611.433738</v>
       </c>
       <c r="H61" t="n">
-        <v>2230.680272108843</v>
+        <v>2065.351473922902</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O61" t="b">
         <v>0</v>
@@ -4002,27 +4676,39 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1592384055.104323</v>
+        <v>1592942610.398227</v>
       </c>
       <c r="G62" t="n">
-        <v>1592384058.140708</v>
+        <v>1592942612.93653</v>
       </c>
       <c r="H62" t="n">
-        <v>2734.671201814059</v>
+        <v>2238.684807256236</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O62" t="b">
         <v>0</v>
@@ -4060,27 +4746,39 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1592384056.103248</v>
+        <v>1592942611.433738</v>
       </c>
       <c r="G63" t="n">
-        <v>1592384058.636149</v>
+        <v>1592942614.302839</v>
       </c>
       <c r="H63" t="n">
-        <v>2230.680272108843</v>
+        <v>2569.319727891156</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="O63" t="b">
         <v>0</v>
@@ -4101,11 +4799,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4114,39 +4812,49 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1592384058.636149</v>
+        <v>1592942612.93653</v>
       </c>
       <c r="G64" t="n">
-        <v>1592384060.65119</v>
+        <v>1592942615.475219</v>
       </c>
       <c r="H64" t="n">
-        <v>1713.333333333333</v>
+        <v>2238.684807256236</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>109</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P64" t="n">
-        <v>1592384059.914915</v>
+        <v>121</v>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
       </c>
       <c r="Q64" t="b">
         <v>0</v>
@@ -4161,11 +4869,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4174,47 +4882,55 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1592384058.140708</v>
+        <v>1592942614.302839</v>
       </c>
       <c r="G65" t="n">
-        <v>1592384061.176788</v>
+        <v>1592942616.492619</v>
       </c>
       <c r="H65" t="n">
-        <v>2734.671201814059</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>132</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>1592384059.914915</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>1592384061.04112</v>
+        <v>93</v>
+      </c>
+      <c r="O65" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>0</v>
+      </c>
+      <c r="R65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -4240,27 +4956,39 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1592384061.176788</v>
+        <v>1592942615.475219</v>
       </c>
       <c r="G66" t="n">
-        <v>1592384064.892872</v>
+        <v>1592942619.033034</v>
       </c>
       <c r="H66" t="n">
-        <v>3414.671201814059</v>
+        <v>3257.34693877551</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O66" t="b">
         <v>0</v>
@@ -4298,27 +5026,39 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1592384065.895571</v>
+        <v>1592942620.033416</v>
       </c>
       <c r="G67" t="n">
-        <v>1592384067.905868</v>
+        <v>1592942622.224425</v>
       </c>
       <c r="H67" t="n">
-        <v>1708.004535147392</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="O67" t="b">
         <v>0</v>
@@ -4356,27 +5096,39 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1592384065.896568</v>
+        <v>1592942620.034411</v>
       </c>
       <c r="G68" t="n">
-        <v>1592384069.613509</v>
+        <v>1592942622.74107</v>
       </c>
       <c r="H68" t="n">
-        <v>3414.671201814059</v>
+        <v>2406.666666666667</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="O68" t="b">
         <v>0</v>
@@ -4414,35 +5166,45 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1592384067.905868</v>
+        <v>1592942622.224425</v>
       </c>
       <c r="G69" t="n">
-        <v>1592384070.436402</v>
+        <v>1592942624.760983</v>
       </c>
       <c r="H69" t="n">
-        <v>2228.004535147392</v>
+        <v>2235.986394557823</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>106</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
-        <v>1592384070.103168</v>
+        <v>90</v>
+      </c>
+      <c r="O69" t="b">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
       </c>
       <c r="Q69" t="b">
         <v>0</v>
@@ -4457,11 +5219,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4470,31 +5232,43 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1592384070.436402</v>
+        <v>1592942622.74107</v>
       </c>
       <c r="G70" t="n">
-        <v>1592384072.446438</v>
+        <v>1592942625.261469</v>
       </c>
       <c r="H70" t="n">
-        <v>1708.004535147392</v>
+        <v>2220</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="O70" t="b">
         <v>0</v>
@@ -4515,11 +5289,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4528,39 +5302,49 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1592384069.613509</v>
+        <v>1592942624.760983</v>
       </c>
       <c r="G71" t="n">
-        <v>1592384072.648933</v>
+        <v>1592942627.631385</v>
       </c>
       <c r="H71" t="n">
-        <v>2734.671201814059</v>
+        <v>2569.319727891156</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>132</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>1592384070.103168</v>
+        <v>99</v>
+      </c>
+      <c r="O71" t="b">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
       </c>
       <c r="Q71" t="b">
         <v>0</v>
@@ -4575,11 +5359,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4588,31 +5372,43 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1592384072.446438</v>
+        <v>1592942625.261469</v>
       </c>
       <c r="G72" t="n">
-        <v>1592384074.455877</v>
+        <v>1592942628.139071</v>
       </c>
       <c r="H72" t="n">
-        <v>1708.004535147392</v>
+        <v>2577.34693877551</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="O72" t="b">
         <v>0</v>
@@ -4633,11 +5429,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4646,31 +5442,43 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1592384072.648933</v>
+        <v>1592942627.631385</v>
       </c>
       <c r="G73" t="n">
-        <v>1592384076.36529</v>
+        <v>1592942630.501122</v>
       </c>
       <c r="H73" t="n">
-        <v>3414.671201814059</v>
+        <v>2569.319727891156</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="n">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="O73" t="b">
         <v>0</v>
@@ -4691,11 +5499,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4704,39 +5512,49 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1592384074.455877</v>
+        <v>1592942628.139071</v>
       </c>
       <c r="G74" t="n">
-        <v>1592384077.151701</v>
+        <v>1592942631.01788</v>
       </c>
       <c r="H74" t="n">
-        <v>2393.333333333334</v>
+        <v>2577.34693877551</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>80</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
-        <v>1592384076.478987</v>
+        <v>10</v>
+      </c>
+      <c r="O74" t="b">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
       </c>
       <c r="Q74" t="b">
         <v>0</v>
@@ -4755,7 +5573,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4768,27 +5586,39 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1592384077.151701</v>
+        <v>1592942630.501122</v>
       </c>
       <c r="G75" t="n">
-        <v>1592384079.847275</v>
+        <v>1592942632.690931</v>
       </c>
       <c r="H75" t="n">
-        <v>2393.333333333334</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="O75" t="b">
         <v>0</v>
@@ -4796,13 +5626,11 @@
       <c r="P75" t="b">
         <v>0</v>
       </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R75" t="n">
-        <v>1592384079.603728</v>
+      <c r="Q75" t="b">
+        <v>0</v>
+      </c>
+      <c r="R75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4815,7 +5643,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4828,43 +5656,51 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1592384076.36529</v>
+        <v>1592942631.01788</v>
       </c>
       <c r="G76" t="n">
-        <v>1592384080.081198</v>
+        <v>1592942633.724801</v>
       </c>
       <c r="H76" t="n">
-        <v>3414.671201814059</v>
+        <v>2406.666666666667</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>34</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>1592384076.478987</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>1592384079.603728</v>
+        <v>120</v>
+      </c>
+      <c r="O76" t="b">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="b">
+        <v>0</v>
+      </c>
+      <c r="R76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -4877,7 +5713,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4890,27 +5726,39 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1592384079.847275</v>
+        <v>1592942632.690931</v>
       </c>
       <c r="G77" t="n">
-        <v>1592384082.37706</v>
+        <v>1592942634.879686</v>
       </c>
       <c r="H77" t="n">
-        <v>2228.004535147392</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="O77" t="b">
         <v>0</v>
@@ -4935,7 +5783,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4948,27 +5796,39 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1592384080.081198</v>
+        <v>1592942633.724801</v>
       </c>
       <c r="G78" t="n">
-        <v>1592384082.434905</v>
+        <v>1592942636.431124</v>
       </c>
       <c r="H78" t="n">
-        <v>2052.018140589569</v>
+        <v>2406.666666666667</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="O78" t="b">
         <v>0</v>
@@ -4993,7 +5853,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5006,27 +5866,39 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1592384082.37706</v>
+        <v>1592942634.879686</v>
       </c>
       <c r="G79" t="n">
-        <v>1592384084.743542</v>
+        <v>1592942637.229724</v>
       </c>
       <c r="H79" t="n">
-        <v>2065.351473922902</v>
+        <v>2049.319727891156</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="O79" t="b">
         <v>0</v>
@@ -5051,7 +5923,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5064,27 +5936,39 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1592384082.434905</v>
+        <v>1592942636.431124</v>
       </c>
       <c r="G80" t="n">
-        <v>1592384084.788935</v>
+        <v>1592942638.969637</v>
       </c>
       <c r="H80" t="n">
-        <v>2052.018140589569</v>
+        <v>2238.684807256236</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="O80" t="b">
         <v>0</v>
@@ -5105,11 +5989,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5118,31 +6002,43 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1592384084.788935</v>
+        <v>1592942637.229724</v>
       </c>
       <c r="G81" t="n">
-        <v>1592384087.668657</v>
+        <v>1592942639.242906</v>
       </c>
       <c r="H81" t="n">
-        <v>2577.34693877551</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="O81" t="b">
         <v>0</v>
@@ -5150,13 +6046,11 @@
       <c r="P81" t="b">
         <v>0</v>
       </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>1592384086.601887</v>
+      <c r="Q81" t="b">
+        <v>0</v>
+      </c>
+      <c r="R81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -5182,27 +6076,39 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1592384087.668657</v>
+        <v>1592942638.969637</v>
       </c>
       <c r="G82" t="n">
-        <v>1592384090.032125</v>
+        <v>1592942642.685511</v>
       </c>
       <c r="H82" t="n">
-        <v>2062.65306122449</v>
+        <v>3414.671201814059</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="O82" t="b">
         <v>0</v>
@@ -5240,27 +6146,39 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1592384149.298796</v>
+        <v>1592942654.291609</v>
       </c>
       <c r="G83" t="n">
-        <v>1592384151.66181</v>
+        <v>1592942656.644802</v>
       </c>
       <c r="H83" t="n">
-        <v>2062.65306122449</v>
+        <v>2052.018140589569</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="n">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="O83" t="b">
         <v>0</v>
@@ -5298,27 +6216,39 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1592384149.296802</v>
+        <v>1592942654.290612</v>
       </c>
       <c r="G84" t="n">
-        <v>1592384151.823385</v>
+        <v>1592942656.822331</v>
       </c>
       <c r="H84" t="n">
-        <v>2225.351473922903</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>2</v>
       </c>
       <c r="N84" t="n">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="O84" t="b">
         <v>0</v>
@@ -5339,7 +6269,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -5352,31 +6282,43 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1592384151.823385</v>
+        <v>1592942656.644802</v>
       </c>
       <c r="G85" t="n">
-        <v>1592384154.35013</v>
+        <v>1592942659.346811</v>
       </c>
       <c r="H85" t="n">
-        <v>2225.351473922903</v>
+        <v>2401.337868480726</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>2</v>
       </c>
       <c r="N85" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="O85" t="b">
         <v>0</v>
@@ -5397,7 +6339,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -5410,31 +6352,43 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1592384151.66181</v>
+        <v>1592942656.822331</v>
       </c>
       <c r="G86" t="n">
-        <v>1592384154.540621</v>
+        <v>1592942659.3508</v>
       </c>
       <c r="H86" t="n">
-        <v>2577.34693877551</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>2</v>
       </c>
       <c r="N86" t="n">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="O86" t="b">
         <v>0</v>
@@ -5455,7 +6409,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -5468,31 +6422,43 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1592384154.35013</v>
+        <v>1592942659.346811</v>
       </c>
       <c r="G87" t="n">
-        <v>1592384156.715904</v>
+        <v>1592942661.867197</v>
       </c>
       <c r="H87" t="n">
-        <v>2065.351473922902</v>
+        <v>2220</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="n">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="O87" t="b">
         <v>0</v>
@@ -5513,7 +6479,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -5526,31 +6492,43 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1592384154.540621</v>
+        <v>1592942659.3508</v>
       </c>
       <c r="G88" t="n">
-        <v>1592384156.903932</v>
+        <v>1592942661.880156</v>
       </c>
       <c r="H88" t="n">
-        <v>2062.65306122449</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O88" t="b">
         <v>0</v>
@@ -5571,7 +6549,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -5584,31 +6562,43 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1592384156.715904</v>
+        <v>1592942661.867197</v>
       </c>
       <c r="G89" t="n">
-        <v>1592384159.082702</v>
+        <v>1592942664.388914</v>
       </c>
       <c r="H89" t="n">
-        <v>2065.351473922902</v>
+        <v>2220</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>2</v>
       </c>
       <c r="N89" t="n">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="O89" t="b">
         <v>0</v>
@@ -5629,7 +6619,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -5642,31 +6632,43 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1592384156.903932</v>
+        <v>1592942661.880156</v>
       </c>
       <c r="G90" t="n">
-        <v>1592384159.268204</v>
+        <v>1592942664.40886</v>
       </c>
       <c r="H90" t="n">
-        <v>2062.65306122449</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="n">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O90" t="b">
         <v>0</v>
@@ -5704,10 +6706,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1592384159.268204</v>
+        <v>1592942664.388914</v>
       </c>
       <c r="G91" t="n">
-        <v>1592384161.621688</v>
+        <v>1592942666.741694</v>
       </c>
       <c r="H91" t="n">
         <v>2052.018140589569</v>
@@ -5717,14 +6719,26 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>2</v>
       </c>
       <c r="N91" t="n">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="O91" t="b">
         <v>0</v>
@@ -5762,27 +6776,39 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1592384159.082702</v>
+        <v>1592942664.40886</v>
       </c>
       <c r="G92" t="n">
-        <v>1592384161.778872</v>
+        <v>1592942666.774605</v>
       </c>
       <c r="H92" t="n">
-        <v>2393.333333333334</v>
+        <v>2065.351473922902</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>2</v>
       </c>
       <c r="N92" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="O92" t="b">
         <v>0</v>
@@ -5820,35 +6846,45 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1592384161.778872</v>
+        <v>1592942666.774605</v>
       </c>
       <c r="G93" t="n">
-        <v>1592384164.310103</v>
+        <v>1592942669.14014</v>
       </c>
       <c r="H93" t="n">
-        <v>2230.680272108843</v>
+        <v>2065.351473922902</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>2</v>
       </c>
       <c r="N93" t="n">
-        <v>85</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P93" t="n">
-        <v>1592384162.105517</v>
+        <v>91</v>
+      </c>
+      <c r="O93" t="b">
+        <v>0</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
       </c>
       <c r="Q93" t="b">
         <v>0</v>
@@ -5880,35 +6916,45 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1592384161.621688</v>
+        <v>1592942666.741694</v>
       </c>
       <c r="G94" t="n">
-        <v>1592384164.658173</v>
+        <v>1592942669.279765</v>
       </c>
       <c r="H94" t="n">
-        <v>2734.671201814059</v>
+        <v>2238.684807256236</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>2</v>
       </c>
       <c r="N94" t="n">
-        <v>132</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>1592384162.105517</v>
+        <v>121</v>
+      </c>
+      <c r="O94" t="b">
+        <v>0</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
       </c>
       <c r="Q94" t="b">
         <v>0</v>
@@ -5923,7 +6969,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Right</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -5936,31 +6982,43 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1592384164.310103</v>
+        <v>1592942669.279765</v>
       </c>
       <c r="G95" t="n">
-        <v>1592384166.841905</v>
+        <v>1592942671.818736</v>
       </c>
       <c r="H95" t="n">
-        <v>2230.680272108843</v>
+        <v>2238.684807256236</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="n">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="O95" t="b">
         <v>0</v>
@@ -5981,7 +7039,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -5994,31 +7052,43 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1592384164.658173</v>
+        <v>1592942669.14014</v>
       </c>
       <c r="G96" t="n">
-        <v>1592384167.693231</v>
+        <v>1592942672.01071</v>
       </c>
       <c r="H96" t="n">
-        <v>2734.671201814059</v>
+        <v>2569.319727891156</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>2</v>
       </c>
       <c r="N96" t="n">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="O96" t="b">
         <v>0</v>
@@ -6056,27 +7126,39 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1592384166.841905</v>
+        <v>1592942672.01071</v>
       </c>
       <c r="G97" t="n">
-        <v>1592384168.8568</v>
+        <v>1592942674.199973</v>
       </c>
       <c r="H97" t="n">
-        <v>1713.333333333333</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="O97" t="b">
         <v>0</v>
@@ -6114,27 +7196,39 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1592384167.693231</v>
+        <v>1592942671.818736</v>
       </c>
       <c r="G98" t="n">
-        <v>1592384171.408956</v>
+        <v>1592942675.376595</v>
       </c>
       <c r="H98" t="n">
-        <v>3414.671201814059</v>
+        <v>3257.34693877551</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>2</v>
       </c>
       <c r="N98" t="n">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O98" t="b">
         <v>0</v>
@@ -6142,16 +7236,14 @@
       <c r="P98" t="b">
         <v>0</v>
       </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="R98" t="n">
-        <v>1592384169.227378</v>
+      <c r="Q98" t="b">
+        <v>0</v>
+      </c>
+      <c r="R98" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>